--- a/data/trans_dic/P56$privada-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$privada-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,82</t>
+          <t>0,0; 65,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,57</t>
+          <t>0,0; 49,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,7 +755,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 90,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,17 +770,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,95</t>
+          <t>0,0; 70,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,49</t>
+          <t>0,0; 56,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,43</t>
+          <t>0,0; 21,37</t>
         </is>
       </c>
     </row>
@@ -869,17 +870,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,69</t>
+          <t>0,0; 78,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,32</t>
+          <t>0,0; 79,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,08</t>
+          <t>0,0; 46,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +900,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,91</t>
+          <t>0,0; 29,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +910,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,21</t>
+          <t>0,0; 61,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,37</t>
+          <t>0,0; 47,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 26,71</t>
+          <t>2,95; 29,52</t>
         </is>
       </c>
     </row>
@@ -1009,22 +1010,22 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,65</t>
+          <t>0,0; 58,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,65; 60,77</t>
+          <t>8,62; 61,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 39,26</t>
+          <t>6,87; 38,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,57</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,32 +1035,32 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,65</t>
+          <t>0,0; 83,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 33,85</t>
+          <t>8,02; 34,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,6</t>
+          <t>0,0; 42,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,34</t>
+          <t>0,0; 35,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,06; 57,41</t>
+          <t>10,73; 57,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,17; 30,81</t>
+          <t>10,07; 29,96</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1145,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 28,69</t>
+          <t>3,08; 27,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 19,71</t>
+          <t>2,43; 20,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,76</t>
+          <t>0,0; 23,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 24,5</t>
+          <t>7,28; 24,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1170,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,24</t>
+          <t>0,0; 24,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 47,84</t>
+          <t>5,65; 47,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 26,03</t>
+          <t>7,45; 25,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 22,01</t>
+          <t>2,32; 21,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 17,36</t>
+          <t>1,82; 18,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 26,75</t>
+          <t>5,77; 28,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,92; 21,49</t>
+          <t>9,14; 21,04</t>
         </is>
       </c>
     </row>
@@ -1289,57 +1290,57 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,97</t>
+          <t>0,0; 31,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,18; 29,89</t>
+          <t>3,2; 30,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,74; 37,49</t>
+          <t>8,73; 41,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 46,09</t>
+          <t>6,08; 49,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,84</t>
+          <t>0,0; 11,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,56</t>
+          <t>0,0; 22,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,13; 23,58</t>
+          <t>12,2; 23,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 32,66</t>
+          <t>3,92; 32,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 11,5</t>
+          <t>1,32; 12,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 19,73</t>
+          <t>3,54; 18,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,6; 24,56</t>
+          <t>13,37; 24,13</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 14,98</t>
+          <t>1,7; 16,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,95; 31,58</t>
+          <t>13,46; 31,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,37; 26,19</t>
+          <t>7,66; 25,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,06; 28,71</t>
+          <t>16,27; 28,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 14,98</t>
+          <t>1,7; 16,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,95; 31,58</t>
+          <t>13,46; 31,25</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,37; 26,19</t>
+          <t>7,66; 25,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,62; 27,34</t>
+          <t>15,87; 27,57</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,84; 16,56</t>
+          <t>1,78; 16,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 18,54</t>
+          <t>4,0; 17,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 22,63</t>
+          <t>7,35; 22,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,5; 22,19</t>
+          <t>10,61; 21,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,61; 20,34</t>
+          <t>5,86; 19,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,26; 19,98</t>
+          <t>9,48; 19,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,59; 23,94</t>
+          <t>9,57; 21,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,36; 22,14</t>
+          <t>15,1; 22,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,55; 16,22</t>
+          <t>5,77; 15,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,9; 17,62</t>
+          <t>9,4; 17,87</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,55; 20,57</t>
+          <t>10,0; 20,59</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,53; 20,57</t>
+          <t>14,7; 20,67</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, tiene ayuda privada cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2208</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1376</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2208</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2117</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1007</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1875</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4275</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2836</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 983</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3261</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4436</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 916</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1351</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5273</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6452</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2470</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1032</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2322</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1096</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2322</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2128</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1893</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 632</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5154</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3856</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4054</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3248</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3322</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2000</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2367</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4066</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6051</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4428</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>497; 4977</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3011</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2560</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1129</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2607</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3345</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1129</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5617</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5905</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1393</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4139</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>899; 6412</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>942; 5230</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4473</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1797</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6084</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1446; 6235</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4465</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6329</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1899; 10155</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3197; 9511</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3461</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3279</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1727</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6818</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5095</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3461</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6822</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11172</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>908; 8049</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1033; 8720</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5691</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3678; 12218</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4493</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1235; 10476</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2099; 7301</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>853; 7960</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1106; 11204</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2684; 13066</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>7199; 16567</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3356</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3436</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2095</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2573</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14642</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3436</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4228</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5929</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18284</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1607</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5700</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>821; 7814</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1585; 7550</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1050; 8575</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7307</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7987</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10108; 19809</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1078; 8890</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1104; 10742</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2177; 11564</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>13507; 24373</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3912</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>22351</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14918</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22328</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3912</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>22351</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>14918</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>22328</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 778</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1019; 9617</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>13948; 32383</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7379; 24403</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>16796; 29305</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1019; 9617</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>13948; 32383</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>7379; 24403</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>16717; 29046</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3461</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7429</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>9746</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>15198</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>10799</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>28859</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>26568</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>45159</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>14260</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>36288</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>36314</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>60357</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>858; 7949</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3142; 13566</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>5299; 16468</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>10507; 21249</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5480; 18381</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>19359; 40617</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>16319; 37390</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>37177; 55045</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>8182; 22663</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>26593; 50525</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>24267; 49966</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>50744; 71349</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P56$privada-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$privada-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
